--- a/src/main/resources/templates/instructor_import.xlsx
+++ b/src/main/resources/templates/instructor_import.xlsx
@@ -1,145 +1,6 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glacier\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC173F0-892A-447D-8CDF-609558C21FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29D6D473-5EC8-49B4-A22E-4E5630CB0187}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>员工姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请按照模板输入，最好不要存在空值，加粗的为必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,7 +16,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -167,7 +28,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -181,12 +42,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -214,31 +75,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -266,23 +110,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,49 +251,9 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1892135-C97D-446B-8CB6-55A081FB43CE}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>